--- a/Halide dataform.xlsx
+++ b/Halide dataform.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knj20/Dropbox/YSP25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{047900B3-92C9-4FAA-BB74-80975B19D086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2081CA1D-AF00-4773-8267-9F321518800D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="1" activeTab="1" xr2:uid="{B685B3D1-7F5B-E045-944C-4084FDCEBAD6}"/>
   </bookViews>
@@ -2960,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D29CF15-0A9E-5D44-83AD-8487B917BBE4}">
   <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001"/>
@@ -3090,7 +3090,7 @@
       <c r="K3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>41</v>
       </c>
       <c r="M3" s="12" t="s">
@@ -7253,8 +7253,9 @@
     <hyperlink ref="L76" r:id="rId147" xr:uid="{648ABFD0-DE66-4AC9-BE59-BD5A06C5018B}"/>
     <hyperlink ref="M77" r:id="rId148" xr:uid="{3C8D9400-1687-4589-97EA-56F3DF58DAAD}"/>
     <hyperlink ref="L77" r:id="rId149" xr:uid="{A145620D-6C31-438D-8162-EE70C0B27B6B}"/>
+    <hyperlink ref="L3" r:id="rId150" xr:uid="{56A903F9-3BBF-43D4-8E25-9E72D0042F95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId150"/>
+  <legacyDrawing r:id="rId151"/>
 </worksheet>
 </file>